--- a/라키비움_기록관리기준표 UPDATE.xlsx
+++ b/라키비움_기록관리기준표 UPDATE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="121">
   <si>
     <t>중기능</t>
   </si>
@@ -457,6 +457,10 @@
   </si>
   <si>
     <t>업무담당부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비공개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2660,7 +2664,7 @@
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>111</v>
